--- a/src/main/resources/static/cif_data/INCIFVIP_20200724_1.xlsx
+++ b/src/main/resources/static/cif_data/INCIFVIP_20200724_1.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\WW40081X\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CIMB\Project Assignment ITDP\vip-flag-spring\src\main\resources\static\cif_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="4">
   <si>
     <t>Y</t>
   </si>
@@ -71,11 +71,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -358,8 +362,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2:C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -384,224 +388,227 @@
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="1">
+      <c r="A2" s="2">
         <v>123456789</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="1">
+      <c r="A3" s="2">
         <v>123456790</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="1">
+      <c r="A4" s="2">
         <v>123456791</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="1">
+      <c r="A5" s="2">
         <v>123456792</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="1">
+      <c r="A6" s="2">
         <v>123456793</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="1">
+      <c r="A7" s="2">
         <v>123456794</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C7">
+      <c r="C7" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="1">
+      <c r="A8" s="2">
         <v>123456795</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C8">
+      <c r="C8" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="1">
+      <c r="A9" s="2">
         <v>123456796</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C9">
+      <c r="C9" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="1">
+      <c r="A10" s="2">
         <v>123456797</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C10">
+      <c r="C10" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="1">
+      <c r="A11" s="2">
         <v>123456798</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C11">
+      <c r="C11" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="1">
+      <c r="A12" s="2">
         <v>123456799</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C12">
+      <c r="C12" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="1">
+      <c r="A13" s="2">
         <v>123456800</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C13">
+      <c r="C13" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="1">
+      <c r="A14" s="2">
         <v>123456801</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C14">
+      <c r="C14" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" s="1">
+      <c r="A15" s="2">
         <v>123456802</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C15">
+      <c r="C15" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" s="1">
+      <c r="A16" s="2">
         <v>123456803</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C16">
+      <c r="C16" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="1">
+      <c r="A17" s="2">
         <v>123456804</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C17">
+      <c r="C17" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="1">
+      <c r="A18" s="2">
         <v>123456805</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C18">
+      <c r="C18" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="1">
+      <c r="A19" s="2">
         <v>123456806</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C19">
+      <c r="C19" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="1">
+      <c r="A20" s="2">
         <v>123456807</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C20">
+      <c r="C20" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="1">
+      <c r="A21" s="2">
         <v>123456808</v>
       </c>
-      <c r="B21" s="1"/>
-      <c r="C21">
+      <c r="B21" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C21" s="3">
         <v>1</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId1"/>
 </worksheet>
 </file>